--- a/testData/TestData.xlsx
+++ b/testData/TestData.xlsx
@@ -5,10 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Admin" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="PIM" sheetId="3" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
   <si>
     <t xml:space="preserve">TestCaseID</t>
   </si>
@@ -38,16 +40,74 @@
   </si>
   <si>
     <t xml:space="preserve">admin123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BTN_AddUser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DD_UserRole</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DD_Status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_EmployeeName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enabled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Randaom userName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">password@123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_FirstName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_MiddleName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_LastName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_EmployeeID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHK_CreateLogin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FirstName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MiddleName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lastname</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -69,6 +129,20 @@
       <name val="Arial"/>
       <family val="0"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF6AAB73"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -112,12 +186,40 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -130,6 +232,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF6AAB73"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -246,8 +408,8 @@
   </sheetPr>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -283,4 +445,155 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="14.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="21.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="23.09"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1" display="password@123"/>
+  </hyperlinks>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M10" activeCellId="0" sqref="M10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="4" width="11.53"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/testData/TestData.xlsx
+++ b/testData/TestData.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
   <si>
     <t xml:space="preserve">TestCaseID</t>
   </si>
@@ -84,6 +84,9 @@
     <t xml:space="preserve">CHK_CreateLogin</t>
   </si>
   <si>
+    <t xml:space="preserve">BTN_Save</t>
+  </si>
+  <si>
     <t xml:space="preserve">FirstName</t>
   </si>
   <si>
@@ -97,6 +100,12 @@
   </si>
   <si>
     <t xml:space="preserve">Click</t>
+  </si>
+  <si>
+    <t xml:space="preserve">username@0451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qwerty@0451</t>
   </si>
 </sst>
 </file>
@@ -107,7 +116,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -143,6 +152,13 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -186,7 +202,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -203,7 +219,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -215,11 +231,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -530,15 +550,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M10" activeCellId="0" sqref="M10"/>
+      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="4" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="19.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="16.83"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -563,6 +586,15 @@
       <c r="G1" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="H1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
@@ -572,22 +604,35 @@
         <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="F2" s="8" t="s">
         <v>24</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H2" r:id="rId1" display="username@0451"/>
+    <hyperlink ref="I2" r:id="rId2" display="Qwerty@0451"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
